--- a/biology/Zoologie/Galeomorphi/Galeomorphi.xlsx
+++ b/biology/Zoologie/Galeomorphi/Galeomorphi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Galeomorphi sont un super-ordre de requins, l'autre subdivision étant celle des Squalomorphi. 
-Ce groupe comprend quatre ordres de requins modernes, qui ont une nageoire anale et sont plus ou moins pélagiques[1],[2],[3].
+Ce groupe comprend quatre ordres de requins modernes, qui ont une nageoire anale et sont plus ou moins pélagiques.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le super-ordre des Galeomorphi a été créé en 1973 par l'ichtyologiste américain Leonard Compagno.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2014) :
 ordre Carcharhiniformes (Requins-marteau, Roussettes, requins de récifs…) -- 251 espèces
 ordre Heterodontiformes (Requins dormeurs…) -- 9 espèces
 ordre Lamniformes (Requin pèlerin, grand requin blanc, requins renards, requins taupes…) -- 16 espèces
